--- a/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.012483427091979</v>
+        <v>2.059401948816173</v>
       </c>
       <c r="C2">
-        <v>0.7644968098815355</v>
+        <v>0.4579222769115177</v>
       </c>
       <c r="D2">
-        <v>0.01093523129802287</v>
+        <v>0.03241584762477601</v>
       </c>
       <c r="E2">
-        <v>0.1669918268025157</v>
+        <v>0.2276109362102758</v>
       </c>
       <c r="F2">
-        <v>1.494915499483866</v>
+        <v>0.5822692131548806</v>
       </c>
       <c r="G2">
-        <v>0.0007724267971218309</v>
+        <v>0.0007771240749337763</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.08039954537329</v>
+        <v>0.884385163167785</v>
       </c>
       <c r="N2">
-        <v>0.6501442075821799</v>
+        <v>0.5591341333687403</v>
       </c>
       <c r="O2">
-        <v>1.145430785802532</v>
+        <v>1.643491831260377</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.599766906456182</v>
+        <v>1.790036184500082</v>
       </c>
       <c r="C3">
-        <v>0.6609701210788614</v>
+        <v>0.4044638651709818</v>
       </c>
       <c r="D3">
-        <v>0.01219212073720444</v>
+        <v>0.02906649017548091</v>
       </c>
       <c r="E3">
-        <v>0.1448981647373841</v>
+        <v>0.1985408645005293</v>
       </c>
       <c r="F3">
-        <v>1.330347810799282</v>
+        <v>0.5257672351054339</v>
       </c>
       <c r="G3">
-        <v>0.0007800499405955534</v>
+        <v>0.0007814961168497627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9310475636567972</v>
+        <v>0.7654196468146708</v>
       </c>
       <c r="N3">
-        <v>0.6943449942971682</v>
+        <v>0.5874970083184614</v>
       </c>
       <c r="O3">
-        <v>1.024706973864951</v>
+        <v>1.503801513222186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.349538141155222</v>
+        <v>1.6250354960263</v>
       </c>
       <c r="C4">
-        <v>0.5981090703211578</v>
+        <v>0.3716333663818432</v>
       </c>
       <c r="D4">
-        <v>0.01300593815738837</v>
+        <v>0.02700356042033647</v>
       </c>
       <c r="E4">
-        <v>0.1317264699298875</v>
+        <v>0.1811647550588233</v>
       </c>
       <c r="F4">
-        <v>1.232841773679951</v>
+        <v>0.4922839964737804</v>
       </c>
       <c r="G4">
-        <v>0.0007848538627374745</v>
+        <v>0.0007842671391002954</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8408304345412461</v>
+        <v>0.692955952574728</v>
       </c>
       <c r="N4">
-        <v>0.7230687554179731</v>
+        <v>0.6059484357509852</v>
       </c>
       <c r="O4">
-        <v>0.9534538556908672</v>
+        <v>1.421969058261624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.248244922484616</v>
+        <v>1.557865692949036</v>
       </c>
       <c r="C5">
-        <v>0.5726382809464496</v>
+        <v>0.3582481844404128</v>
       </c>
       <c r="D5">
-        <v>0.01334734751944389</v>
+        <v>0.0261611700514095</v>
       </c>
       <c r="E5">
-        <v>0.1264454881402024</v>
+        <v>0.174190259277367</v>
       </c>
       <c r="F5">
-        <v>1.19390446457291</v>
+        <v>0.4789201621204242</v>
       </c>
       <c r="G5">
-        <v>0.0007868439575997282</v>
+        <v>0.0007854185970240851</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8043855346160385</v>
+        <v>0.6635499649792322</v>
       </c>
       <c r="N5">
-        <v>0.7351513897473758</v>
+        <v>0.6137193057678871</v>
       </c>
       <c r="O5">
-        <v>0.9250657743725128</v>
+        <v>1.389539598590432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.231462752736149</v>
+        <v>1.54671557181328</v>
       </c>
       <c r="C6">
-        <v>0.5684167962921833</v>
+        <v>0.3560250601815085</v>
       </c>
       <c r="D6">
-        <v>0.01340460650605735</v>
+        <v>0.02602118407440202</v>
       </c>
       <c r="E6">
-        <v>0.1255734713261134</v>
+        <v>0.1730382249421112</v>
       </c>
       <c r="F6">
-        <v>1.187484533226467</v>
+        <v>0.4767174163004242</v>
       </c>
       <c r="G6">
-        <v>0.0007871764121536293</v>
+        <v>0.0007856111526976941</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7983516728469411</v>
+        <v>0.6586739489058999</v>
       </c>
       <c r="N6">
-        <v>0.7371799218283144</v>
+        <v>0.6150246088575742</v>
       </c>
       <c r="O6">
-        <v>0.9203890527874989</v>
+        <v>1.384208114379845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.348169479080582</v>
+        <v>1.6241293769246</v>
       </c>
       <c r="C7">
-        <v>0.59776501265398</v>
+        <v>0.3714528814721803</v>
       </c>
       <c r="D7">
-        <v>0.01301050396172432</v>
+        <v>0.02699220680065295</v>
       </c>
       <c r="E7">
-        <v>0.1316549138357317</v>
+        <v>0.1810702797138291</v>
       </c>
       <c r="F7">
-        <v>1.232313540822645</v>
+        <v>0.492102659695405</v>
       </c>
       <c r="G7">
-        <v>0.0007848805686273648</v>
+        <v>0.0007842825774403428</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8403377013742457</v>
+        <v>0.6925589018426095</v>
       </c>
       <c r="N7">
-        <v>0.7232302040507896</v>
+        <v>0.6060522283935192</v>
       </c>
       <c r="O7">
-        <v>0.9530684731730332</v>
+        <v>1.42152807919723</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.869441293881096</v>
+        <v>1.966425385241962</v>
       </c>
       <c r="C8">
-        <v>0.728634607081716</v>
+        <v>0.4394882393344517</v>
       </c>
       <c r="D8">
-        <v>0.01135935641648089</v>
+        <v>0.03126224442115699</v>
       </c>
       <c r="E8">
-        <v>0.1592843198132101</v>
+        <v>0.2174815913409063</v>
       </c>
       <c r="F8">
-        <v>1.437379684186425</v>
+        <v>0.5625219755865771</v>
       </c>
       <c r="G8">
-        <v>0.0007750305840503048</v>
+        <v>0.0007786138809800008</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.028560477393711</v>
+        <v>0.843231000479868</v>
       </c>
       <c r="N8">
-        <v>0.6650426691488782</v>
+        <v>0.568693029814721</v>
       </c>
       <c r="O8">
-        <v>1.103162647405071</v>
+        <v>1.59446445903086</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.923055228211012</v>
+        <v>2.642203180622687</v>
       </c>
       <c r="C9">
-        <v>0.9924539194668682</v>
+        <v>0.5730903209653491</v>
       </c>
       <c r="D9">
-        <v>0.008497103209167634</v>
+        <v>0.03959120688966777</v>
       </c>
       <c r="E9">
-        <v>0.2172185548900316</v>
+        <v>0.2932488000238465</v>
       </c>
       <c r="F9">
-        <v>1.872231298984943</v>
+        <v>0.7113284374447062</v>
       </c>
       <c r="G9">
-        <v>0.0007566204652076827</v>
+        <v>0.0007681616177671161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.412178626369709</v>
+        <v>1.14442540750553</v>
       </c>
       <c r="N9">
-        <v>0.5645485986626184</v>
+        <v>0.5040803885064804</v>
       </c>
       <c r="O9">
-        <v>1.423982663189321</v>
+        <v>1.968326716496392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.725949102391098</v>
+        <v>3.143654826636691</v>
       </c>
       <c r="C10">
-        <v>1.193169774497107</v>
+        <v>0.6717304886350632</v>
       </c>
       <c r="D10">
-        <v>0.006690932146622863</v>
+        <v>0.04569359662328054</v>
       </c>
       <c r="E10">
-        <v>0.2630611501159592</v>
+        <v>0.3525019852082494</v>
       </c>
       <c r="F10">
-        <v>2.218906866332716</v>
+        <v>0.8288634555609349</v>
       </c>
       <c r="G10">
-        <v>0.0007435339191363784</v>
+        <v>0.0007608530535109604</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.707155749443587</v>
+        <v>1.370893213678229</v>
       </c>
       <c r="N10">
-        <v>0.5006361900089402</v>
+        <v>0.4625108816442207</v>
       </c>
       <c r="O10">
-        <v>1.681621418374604</v>
+        <v>2.269397431124816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.099951890286945</v>
+        <v>3.37338930082683</v>
       </c>
       <c r="C11">
-        <v>1.286627415285182</v>
+        <v>0.7168005550049941</v>
       </c>
       <c r="D11">
-        <v>0.005952173887593837</v>
+        <v>0.0484686535677028</v>
       </c>
       <c r="E11">
-        <v>0.2848869734344817</v>
+        <v>0.3804646428596783</v>
       </c>
       <c r="F11">
-        <v>2.384391746959878</v>
+        <v>0.8845199855025214</v>
       </c>
       <c r="G11">
-        <v>0.0007376470784441502</v>
+        <v>0.0007576005398360893</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.845311270920163</v>
+        <v>1.475457706701576</v>
       </c>
       <c r="N11">
-        <v>0.4741360242311075</v>
+        <v>0.4450331273412047</v>
       </c>
       <c r="O11">
-        <v>1.805085248505506</v>
+        <v>2.413356731147616</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.243076202247323</v>
+        <v>3.460664768527124</v>
       </c>
       <c r="C12">
-        <v>1.322389627213283</v>
+        <v>0.7339041213059261</v>
       </c>
       <c r="D12">
-        <v>0.00568622225895421</v>
+        <v>0.04951958612483764</v>
       </c>
       <c r="E12">
-        <v>0.2933168678469684</v>
+        <v>0.3912193446982073</v>
       </c>
       <c r="F12">
-        <v>2.448355655627182</v>
+        <v>0.9059471388874272</v>
       </c>
       <c r="G12">
-        <v>0.0007354246646122913</v>
+        <v>0.0007563785520839265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.898305294299192</v>
+        <v>1.515313068584248</v>
       </c>
       <c r="N12">
-        <v>0.4645123757299672</v>
+        <v>0.4386346663186345</v>
       </c>
       <c r="O12">
-        <v>1.852882765449436</v>
+        <v>2.46899182928351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.212181089792807</v>
+        <v>3.441855191964692</v>
       </c>
       <c r="C13">
-        <v>1.314669968325973</v>
+        <v>0.7302188026357328</v>
       </c>
       <c r="D13">
-        <v>0.00574285249076123</v>
+        <v>0.04929324181772188</v>
       </c>
       <c r="E13">
-        <v>0.2914935636770792</v>
+        <v>0.3888953967393789</v>
       </c>
       <c r="F13">
-        <v>2.434519017774335</v>
+        <v>0.9013161843454185</v>
       </c>
       <c r="G13">
-        <v>0.0007359030457984827</v>
+        <v>0.0007566413109457796</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.886860090134732</v>
+        <v>1.506717353271739</v>
       </c>
       <c r="N13">
-        <v>0.4665659857683906</v>
+        <v>0.4400026704027766</v>
       </c>
       <c r="O13">
-        <v>1.842539761362687</v>
+        <v>2.456958044969895</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.111695325528274</v>
+        <v>3.380563611480738</v>
       </c>
       <c r="C14">
-        <v>1.289561752737484</v>
+        <v>0.7182068953403302</v>
       </c>
       <c r="D14">
-        <v>0.005930005381222792</v>
+        <v>0.04855511152850056</v>
       </c>
       <c r="E14">
-        <v>0.2855770432343334</v>
+        <v>0.3813459879341323</v>
       </c>
       <c r="F14">
-        <v>2.389626959932727</v>
+        <v>0.8862755516431804</v>
       </c>
       <c r="G14">
-        <v>0.0007374641197228519</v>
+        <v>0.0007574998166693755</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.849656878001099</v>
+        <v>1.478731214390308</v>
       </c>
       <c r="N14">
-        <v>0.4733357794112933</v>
+        <v>0.4445022290379725</v>
       </c>
       <c r="O14">
-        <v>1.808995752883561</v>
+        <v>2.417910712765433</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.050347513358645</v>
+        <v>3.343058673414873</v>
       </c>
       <c r="C15">
-        <v>1.274232672544088</v>
+        <v>0.7108542608872312</v>
       </c>
       <c r="D15">
-        <v>0.006046500440358038</v>
+        <v>0.04810300244846388</v>
       </c>
       <c r="E15">
-        <v>0.2819752915735521</v>
+        <v>0.3767440098534536</v>
       </c>
       <c r="F15">
-        <v>2.362304105385007</v>
+        <v>0.8771096032767645</v>
       </c>
       <c r="G15">
-        <v>0.0007384211216172185</v>
+        <v>0.0007580269132906072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.826960490864508</v>
+        <v>1.461623794075606</v>
       </c>
       <c r="N15">
-        <v>0.4775373695610554</v>
+        <v>0.4472874220170553</v>
       </c>
       <c r="O15">
-        <v>1.788589698693769</v>
+        <v>2.394142611830034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.701703063585342</v>
+        <v>3.128677680178782</v>
       </c>
       <c r="C16">
-        <v>1.187110533438499</v>
+        <v>0.6687897093515858</v>
       </c>
       <c r="D16">
-        <v>0.006741033266416174</v>
+        <v>0.04551223889747291</v>
       </c>
       <c r="E16">
-        <v>0.2616564087300119</v>
+        <v>0.3506965857395912</v>
       </c>
       <c r="F16">
-        <v>2.208263416215047</v>
+        <v>0.8252732695223273</v>
       </c>
       <c r="G16">
-        <v>0.0007439197468628937</v>
+        <v>0.0007610670059028014</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.698215628937902</v>
+        <v>1.36409382997104</v>
       </c>
       <c r="N16">
-        <v>0.5024232336846381</v>
+        <v>0.4636830899413269</v>
       </c>
       <c r="O16">
-        <v>1.673690654675767</v>
+        <v>2.260139766284084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.490224676254911</v>
+        <v>2.997609275947639</v>
       </c>
       <c r="C17">
-        <v>1.134256714429938</v>
+        <v>0.643040691851553</v>
       </c>
       <c r="D17">
-        <v>0.007189576857101976</v>
+        <v>0.04392279212004269</v>
       </c>
       <c r="E17">
-        <v>0.2494571600451465</v>
+        <v>0.3349897783686089</v>
       </c>
       <c r="F17">
-        <v>2.115877681178688</v>
+        <v>0.7940590662176703</v>
       </c>
       <c r="G17">
-        <v>0.0007473081214248974</v>
+        <v>0.0007629500041087323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.620322915237267</v>
+        <v>1.304682985075033</v>
       </c>
       <c r="N17">
-        <v>0.5183768001539519</v>
+        <v>0.4741177980259152</v>
       </c>
       <c r="O17">
-        <v>1.604904332358998</v>
+        <v>2.179804677421231</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.369396719731355</v>
+        <v>2.922371795082825</v>
       </c>
       <c r="C18">
-        <v>1.104054847986788</v>
+        <v>0.6282486668344518</v>
       </c>
       <c r="D18">
-        <v>0.007455238458184965</v>
+        <v>0.04300848068192664</v>
       </c>
       <c r="E18">
-        <v>0.2425302428989582</v>
+        <v>0.3260491613893137</v>
       </c>
       <c r="F18">
-        <v>2.063460132252473</v>
+        <v>0.7763091952087109</v>
       </c>
       <c r="G18">
-        <v>0.0007492634473216242</v>
+        <v>0.0007640398953562277</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.57588747735133</v>
+        <v>1.270654271455655</v>
       </c>
       <c r="N18">
-        <v>0.5277923636448207</v>
+        <v>0.4802534905051132</v>
       </c>
       <c r="O18">
-        <v>1.565920069672728</v>
+        <v>2.134249626473036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.328618624766705</v>
+        <v>2.896922008987019</v>
       </c>
       <c r="C19">
-        <v>1.093861295842942</v>
+        <v>0.6232432228791822</v>
       </c>
       <c r="D19">
-        <v>0.007546452094969069</v>
+        <v>0.04269888653041676</v>
       </c>
       <c r="E19">
-        <v>0.2401996149270502</v>
+        <v>0.3230374801950902</v>
       </c>
       <c r="F19">
-        <v>2.045831067051608</v>
+        <v>0.7703333201841502</v>
       </c>
       <c r="G19">
-        <v>0.0007499266676996446</v>
+        <v>0.0007644101094707261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.560902306365094</v>
+        <v>1.259156187561601</v>
       </c>
       <c r="N19">
-        <v>0.5310202763342815</v>
+        <v>0.4823535233891647</v>
       </c>
       <c r="O19">
-        <v>1.55281617248923</v>
+        <v>2.118934051438202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.51265157981436</v>
+        <v>3.011545922085361</v>
       </c>
       <c r="C20">
-        <v>1.139862149372647</v>
+        <v>0.6457797867863349</v>
       </c>
       <c r="D20">
-        <v>0.007141022045131784</v>
+        <v>0.04409200068551655</v>
       </c>
       <c r="E20">
-        <v>0.2507463290701466</v>
+        <v>0.3366519705049313</v>
       </c>
       <c r="F20">
-        <v>2.125636528151333</v>
+        <v>0.7973605335667884</v>
       </c>
       <c r="G20">
-        <v>0.0007469467770900537</v>
+        <v>0.0007627488527343454</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.628576079674772</v>
+        <v>1.310992329810773</v>
       </c>
       <c r="N20">
-        <v>0.5166534477100697</v>
+        <v>0.4729930469544712</v>
       </c>
       <c r="O20">
-        <v>1.6121657638746</v>
+        <v>2.188288253363908</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.141167734764849</v>
+        <v>3.398558441508044</v>
       </c>
       <c r="C21">
-        <v>1.29692601129085</v>
+        <v>0.7217340251267217</v>
       </c>
       <c r="D21">
-        <v>0.005874642905511429</v>
+        <v>0.04877191431967276</v>
       </c>
       <c r="E21">
-        <v>0.287310173730603</v>
+        <v>0.3835587546812604</v>
       </c>
       <c r="F21">
-        <v>2.402776056475815</v>
+        <v>0.8906835123549968</v>
       </c>
       <c r="G21">
-        <v>0.0007370054331965952</v>
+        <v>0.0007572473963002477</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.860565050661577</v>
+        <v>1.48694407790407</v>
       </c>
       <c r="N21">
-        <v>0.471335804827568</v>
+        <v>0.4431745120511508</v>
       </c>
       <c r="O21">
-        <v>1.818818851440255</v>
+        <v>2.429348483997842</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.560802653744474</v>
+        <v>3.65315034963993</v>
       </c>
       <c r="C22">
-        <v>1.401779232759793</v>
+        <v>0.7715916049456553</v>
       </c>
       <c r="D22">
-        <v>0.005128546834311187</v>
+        <v>0.05183108407767634</v>
       </c>
       <c r="E22">
-        <v>0.3121825366809432</v>
+        <v>0.4151929396434184</v>
       </c>
       <c r="F22">
-        <v>2.591572284864156</v>
+        <v>0.9537418717263648</v>
       </c>
       <c r="G22">
-        <v>0.0007305463185707333</v>
+        <v>0.0007537078603899724</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.016193121255128</v>
+        <v>1.603468477165151</v>
       </c>
       <c r="N22">
-        <v>0.4441394306501536</v>
+        <v>0.4249759462150209</v>
       </c>
       <c r="O22">
-        <v>1.960047935245981</v>
+        <v>2.593488462702794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.335937520657694</v>
+        <v>3.517101694085</v>
       </c>
       <c r="C23">
-        <v>1.345592520522018</v>
+        <v>0.7449589604190976</v>
       </c>
       <c r="D23">
-        <v>0.005518580679136242</v>
+        <v>0.05019821767096744</v>
       </c>
       <c r="E23">
-        <v>0.2988090979396532</v>
+        <v>0.3982122635794809</v>
       </c>
       <c r="F23">
-        <v>2.490040560388707</v>
+        <v>0.9198845227225689</v>
       </c>
       <c r="G23">
-        <v>0.0007339911790485473</v>
+        <v>0.0007555921049756109</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.932725308588772</v>
+        <v>1.541124051562448</v>
       </c>
       <c r="N23">
-        <v>0.4584179296395092</v>
+        <v>0.4345659412227008</v>
       </c>
       <c r="O23">
-        <v>1.884054003841925</v>
+        <v>2.505240310483742</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.502510046380507</v>
+        <v>3.005244808128339</v>
       </c>
       <c r="C24">
-        <v>1.13732736217446</v>
+        <v>0.6445414069664821</v>
       </c>
       <c r="D24">
-        <v>0.007162949556263065</v>
+        <v>0.04401550312039149</v>
       </c>
       <c r="E24">
-        <v>0.2501632278897219</v>
+        <v>0.3359002164219618</v>
       </c>
       <c r="F24">
-        <v>2.121222398058791</v>
+        <v>0.7958673336752753</v>
       </c>
       <c r="G24">
-        <v>0.0007471101179399559</v>
+        <v>0.0007628397703734318</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.624843753819775</v>
+        <v>1.308139481085604</v>
       </c>
       <c r="N24">
-        <v>0.5174318194970411</v>
+        <v>0.4735011223571419</v>
       </c>
       <c r="O24">
-        <v>1.608881131083152</v>
+        <v>2.184450872822993</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.633731672017916</v>
+        <v>2.458685667129316</v>
       </c>
       <c r="C25">
-        <v>0.920073540910181</v>
+        <v>0.5368913108602271</v>
       </c>
       <c r="D25">
-        <v>0.009224831310633341</v>
+        <v>0.0373417721910414</v>
       </c>
       <c r="E25">
-        <v>0.2010490922066595</v>
+        <v>0.2721936288698359</v>
       </c>
       <c r="F25">
-        <v>1.750391629453247</v>
+        <v>0.669759769377066</v>
       </c>
       <c r="G25">
-        <v>0.0007615148403281623</v>
+        <v>0.0007709215272847238</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.306433803045834</v>
+        <v>1.062165125371308</v>
       </c>
       <c r="N25">
-        <v>0.5901218178234018</v>
+        <v>0.5205718456194361</v>
       </c>
       <c r="O25">
-        <v>1.33379962115616</v>
+        <v>1.862953174140642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.059401948816173</v>
+        <v>1.68796907040516</v>
       </c>
       <c r="C2">
-        <v>0.4579222769115177</v>
+        <v>0.5196570342459381</v>
       </c>
       <c r="D2">
-        <v>0.03241584762477601</v>
+        <v>0.05634440437388832</v>
       </c>
       <c r="E2">
-        <v>0.2276109362102758</v>
+        <v>0.244636179969298</v>
       </c>
       <c r="F2">
-        <v>0.5822692131548806</v>
+        <v>0.3798117051058938</v>
       </c>
       <c r="G2">
-        <v>0.0007771240749337763</v>
+        <v>0.273599347431329</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009470398764893417</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2149411621481647</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1613782062103759</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.884385163167785</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5591341333687403</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.643491831260377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8306947144395238</v>
+      </c>
+      <c r="P2">
+        <v>0.7085237366927828</v>
+      </c>
+      <c r="Q2">
+        <v>0.9808769077912274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.790036184500082</v>
+        <v>1.472887013975708</v>
       </c>
       <c r="C3">
-        <v>0.4044638651709818</v>
+        <v>0.4646802924008853</v>
       </c>
       <c r="D3">
-        <v>0.02906649017548091</v>
+        <v>0.0494932535016801</v>
       </c>
       <c r="E3">
-        <v>0.1985408645005293</v>
+        <v>0.2138955672350846</v>
       </c>
       <c r="F3">
-        <v>0.5257672351054339</v>
+        <v>0.346708902131077</v>
       </c>
       <c r="G3">
-        <v>0.0007814961168497627</v>
+        <v>0.2491380419703049</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007294052551253483</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2079771030352831</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1624603550911843</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7654196468146708</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5874970083184614</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.503801513222186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7205646719687877</v>
+      </c>
+      <c r="P3">
+        <v>0.7121120099727705</v>
+      </c>
+      <c r="Q3">
+        <v>0.9141372095152462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.6250354960263</v>
+        <v>1.3402203464114</v>
       </c>
       <c r="C4">
-        <v>0.3716333663818432</v>
+        <v>0.431092232322527</v>
       </c>
       <c r="D4">
-        <v>0.02700356042033647</v>
+        <v>0.04529420016930885</v>
       </c>
       <c r="E4">
-        <v>0.1811647550588233</v>
+        <v>0.1955048996177524</v>
       </c>
       <c r="F4">
-        <v>0.4922839964737804</v>
+        <v>0.3268612354052038</v>
       </c>
       <c r="G4">
-        <v>0.0007842671391002954</v>
+        <v>0.234512465380341</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006086797980594305</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2039832883669277</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1633861841383553</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.692955952574728</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6059484357509852</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.421969058261624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6532462312502432</v>
+      </c>
+      <c r="P4">
+        <v>0.715109594545126</v>
+      </c>
+      <c r="Q4">
+        <v>0.8745757859445291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.557865692949036</v>
+        <v>1.285159872695743</v>
       </c>
       <c r="C5">
-        <v>0.3582481844404128</v>
+        <v>0.418057854069076</v>
       </c>
       <c r="D5">
-        <v>0.0261611700514095</v>
+        <v>0.04362793359363337</v>
       </c>
       <c r="E5">
-        <v>0.174190259277367</v>
+        <v>0.1881121460501376</v>
       </c>
       <c r="F5">
-        <v>0.4789201621204242</v>
+        <v>0.3185831400332262</v>
       </c>
       <c r="G5">
-        <v>0.0007854185970240851</v>
+        <v>0.2283425440008386</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005675495622815774</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2022686051602989</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1636138044849709</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6635499649792322</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6137193057678871</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.389539598590432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6258899010310373</v>
+      </c>
+      <c r="P5">
+        <v>0.7168463425041267</v>
+      </c>
+      <c r="Q5">
+        <v>0.8578243567607728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.54671557181328</v>
+        <v>1.274976936404727</v>
       </c>
       <c r="C6">
-        <v>0.3560250601815085</v>
+        <v>0.4166520364884718</v>
       </c>
       <c r="D6">
-        <v>0.02602118407440202</v>
+        <v>0.04340450647586636</v>
       </c>
       <c r="E6">
-        <v>0.1730382249421112</v>
+        <v>0.1868804699054607</v>
       </c>
       <c r="F6">
-        <v>0.4767174163004242</v>
+        <v>0.3168458283819433</v>
       </c>
       <c r="G6">
-        <v>0.0007856111526976941</v>
+        <v>0.2269547526953133</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005678408076782659</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2017984908447872</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.163395807372849</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6586739489058999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6150246088575742</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.384208114379845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6213682403395993</v>
+      </c>
+      <c r="P6">
+        <v>0.7175415243092687</v>
+      </c>
+      <c r="Q6">
+        <v>0.8538840835606294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.6241293769246</v>
+        <v>1.336653238466965</v>
       </c>
       <c r="C7">
-        <v>0.3714528814721803</v>
+        <v>0.4329884416486038</v>
       </c>
       <c r="D7">
-        <v>0.02699220680065295</v>
+        <v>0.04541736705368749</v>
       </c>
       <c r="E7">
-        <v>0.1810702797138291</v>
+        <v>0.1953763005935016</v>
       </c>
       <c r="F7">
-        <v>0.492102659695405</v>
+        <v>0.3257391601406994</v>
       </c>
       <c r="G7">
-        <v>0.0007842825774403428</v>
+        <v>0.2334205734287877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006256659978895129</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2034424733264046</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1626802306969211</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6925589018426095</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6060522283935192</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.42152807919723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6529243061296484</v>
+      </c>
+      <c r="P7">
+        <v>0.7162241287511364</v>
+      </c>
+      <c r="Q7">
+        <v>0.8711268975997655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.966425385241962</v>
+        <v>1.610153117250206</v>
       </c>
       <c r="C8">
-        <v>0.4394882393344517</v>
+        <v>0.5034347422762266</v>
       </c>
       <c r="D8">
-        <v>0.03126224442115699</v>
+        <v>0.05417492282882819</v>
       </c>
       <c r="E8">
-        <v>0.2174815913409063</v>
+        <v>0.233891570152494</v>
       </c>
       <c r="F8">
-        <v>0.5625219755865771</v>
+        <v>0.3669517359822265</v>
       </c>
       <c r="G8">
-        <v>0.0007786138809800008</v>
+        <v>0.2637389307051095</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.008899622320461376</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2117944547710522</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1607598292815027</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.843231000479868</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.568693029814721</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.59446445903086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7927110872949044</v>
+      </c>
+      <c r="P8">
+        <v>0.7110921450215031</v>
+      </c>
+      <c r="Q8">
+        <v>0.9532818037403104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.642203180622687</v>
+        <v>2.147006591748664</v>
       </c>
       <c r="C9">
-        <v>0.5730903209653491</v>
+        <v>0.6394439505964726</v>
       </c>
       <c r="D9">
-        <v>0.03959120688966777</v>
+        <v>0.07116508761586715</v>
       </c>
       <c r="E9">
-        <v>0.2932488000238465</v>
+        <v>0.3138714241786147</v>
       </c>
       <c r="F9">
-        <v>0.7113284374447062</v>
+        <v>0.4537712875917492</v>
       </c>
       <c r="G9">
-        <v>0.0007681616177671161</v>
+        <v>0.3284910441953031</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01496758550626343</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2314942424167725</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1604683044194815</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.14442540750553</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5040803885064804</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.968326716496392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.069814175182138</v>
+      </c>
+      <c r="P9">
+        <v>0.7055802177743757</v>
+      </c>
+      <c r="Q9">
+        <v>1.132507475502138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.143654826636691</v>
+        <v>2.537518112743498</v>
       </c>
       <c r="C10">
-        <v>0.6717304886350632</v>
+        <v>0.7418687336868572</v>
       </c>
       <c r="D10">
-        <v>0.04569359662328054</v>
+        <v>0.08380231626875201</v>
       </c>
       <c r="E10">
-        <v>0.3525019852082494</v>
+        <v>0.3761333221738354</v>
       </c>
       <c r="F10">
-        <v>0.8288634555609349</v>
+        <v>0.5201853816273498</v>
       </c>
       <c r="G10">
-        <v>0.0007608530535109604</v>
+        <v>0.3782122309122116</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0203896185871475</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2474023336544349</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1614533219082404</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.370893213678229</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4625108816442207</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.269397431124816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.276294724271253</v>
+      </c>
+      <c r="P10">
+        <v>0.7066084619097097</v>
+      </c>
+      <c r="Q10">
+        <v>1.271701962885544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.37338930082683</v>
+        <v>2.709913761487712</v>
       </c>
       <c r="C11">
-        <v>0.7168005550049941</v>
+        <v>0.7924255503738493</v>
       </c>
       <c r="D11">
-        <v>0.0484686535677028</v>
+        <v>0.08982342278331146</v>
       </c>
       <c r="E11">
-        <v>0.3804646428596783</v>
+        <v>0.4053735317243436</v>
       </c>
       <c r="F11">
-        <v>0.8845199855025214</v>
+        <v>0.5495410153873692</v>
       </c>
       <c r="G11">
-        <v>0.0007576005398360893</v>
+        <v>0.3998611404793735</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02337896473304557</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2542148725520974</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1611431628634854</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.475457706701576</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4450331273412047</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.413356731147616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.371155930771849</v>
+      </c>
+      <c r="P11">
+        <v>0.7102060252762072</v>
+      </c>
+      <c r="Q11">
+        <v>1.33207036118344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.460664768527124</v>
+        <v>2.77768401087053</v>
       </c>
       <c r="C12">
-        <v>0.7339041213059261</v>
+        <v>0.8097646581879303</v>
       </c>
       <c r="D12">
-        <v>0.04951958612483764</v>
+        <v>0.09197661465341866</v>
       </c>
       <c r="E12">
-        <v>0.3912193446982073</v>
+        <v>0.4166274755111914</v>
       </c>
       <c r="F12">
-        <v>0.9059471388874272</v>
+        <v>0.5616766770161234</v>
       </c>
       <c r="G12">
-        <v>0.0007563785520839265</v>
+        <v>0.4090585225334564</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02439634118280498</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2573101751040952</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1616927790152403</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.515313068584248</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4386346663186345</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.46899182928351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.407188925717989</v>
+      </c>
+      <c r="P12">
+        <v>0.7106576172201926</v>
+      </c>
+      <c r="Q12">
+        <v>1.358127665887878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.441855191964692</v>
+        <v>2.763604473133967</v>
       </c>
       <c r="C13">
-        <v>0.7302188026357328</v>
+        <v>0.8056481598034679</v>
       </c>
       <c r="D13">
-        <v>0.04929324181772188</v>
+        <v>0.09148623483288532</v>
       </c>
       <c r="E13">
-        <v>0.3888953967393789</v>
+        <v>0.4142015103837977</v>
       </c>
       <c r="F13">
-        <v>0.9013161843454185</v>
+        <v>0.5592362003120073</v>
       </c>
       <c r="G13">
-        <v>0.0007566413109457796</v>
+        <v>0.4072511963661185</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0241421386297187</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2567310554649538</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1616936517677168</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.506717353271739</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4400026704027766</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.456958044969895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.399414927470161</v>
+      </c>
+      <c r="P13">
+        <v>0.7103339770899169</v>
+      </c>
+      <c r="Q13">
+        <v>1.353066858613488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.380563611480738</v>
+        <v>2.715708341189099</v>
       </c>
       <c r="C14">
-        <v>0.7182068953403302</v>
+        <v>0.793689691065623</v>
       </c>
       <c r="D14">
-        <v>0.04855511152850056</v>
+        <v>0.08998924692111387</v>
       </c>
       <c r="E14">
-        <v>0.3813459879341323</v>
+        <v>0.4062982921794855</v>
       </c>
       <c r="F14">
-        <v>0.8862755516431804</v>
+        <v>0.5506128146528653</v>
       </c>
       <c r="G14">
-        <v>0.0007574998166693755</v>
+        <v>0.4006913667295606</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02344741961514263</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2545066244799443</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1612389655408109</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.478731214390308</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4445022290379725</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.417910712765433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.374114422424327</v>
+      </c>
+      <c r="P14">
+        <v>0.7101470326236097</v>
+      </c>
+      <c r="Q14">
+        <v>1.33444775027499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.343058673414873</v>
+        <v>2.685353961191822</v>
       </c>
       <c r="C15">
-        <v>0.7108542608872312</v>
+        <v>0.787119837578615</v>
       </c>
       <c r="D15">
-        <v>0.04810300244846388</v>
+        <v>0.08912491022869062</v>
       </c>
       <c r="E15">
-        <v>0.3767440098534536</v>
+        <v>0.4014683874861547</v>
       </c>
       <c r="F15">
-        <v>0.8771096032767645</v>
+        <v>0.5449956301233101</v>
       </c>
       <c r="G15">
-        <v>0.0007580269132906072</v>
+        <v>0.3963367866714975</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02309675506211573</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2529746462396361</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.160728351748066</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.461623794075606</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4472874220170553</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.394142611830034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.358650397415417</v>
+      </c>
+      <c r="P15">
+        <v>0.7104835993430783</v>
+      </c>
+      <c r="Q15">
+        <v>1.321974660044845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.128677680178782</v>
+        <v>2.517754294033352</v>
       </c>
       <c r="C16">
-        <v>0.6687897093515858</v>
+        <v>0.7448337734583674</v>
       </c>
       <c r="D16">
-        <v>0.04551223889747291</v>
+        <v>0.08384674843663475</v>
       </c>
       <c r="E16">
-        <v>0.3506965857395912</v>
+        <v>0.3741602565422113</v>
       </c>
       <c r="F16">
-        <v>0.8252732695223273</v>
+        <v>0.5153158866774419</v>
       </c>
       <c r="G16">
-        <v>0.0007610670059028014</v>
+        <v>0.3738511597038183</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02073364506424635</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2454639114161381</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1594534266749221</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.36409382997104</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4636830899413269</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.260139766284084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.270231407203767</v>
+      </c>
+      <c r="P16">
+        <v>0.7099791546177556</v>
+      </c>
+      <c r="Q16">
+        <v>1.258383657580225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.997609275947639</v>
+        <v>2.414871206593375</v>
       </c>
       <c r="C17">
-        <v>0.643040691851553</v>
+        <v>0.7189763644172444</v>
       </c>
       <c r="D17">
-        <v>0.04392279212004269</v>
+        <v>0.08061345172568934</v>
       </c>
       <c r="E17">
-        <v>0.3349897783686089</v>
+        <v>0.3576671430288982</v>
       </c>
       <c r="F17">
-        <v>0.7940590662176703</v>
+        <v>0.4973403622817045</v>
       </c>
       <c r="G17">
-        <v>0.0007629500041087323</v>
+        <v>0.3602583400312938</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01935265802579522</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2409745422805827</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1587813206093536</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.304682985075033</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4741177980259152</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179804677421231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.21622616005213</v>
+      </c>
+      <c r="P17">
+        <v>0.709930582793902</v>
+      </c>
+      <c r="Q17">
+        <v>1.220044949457105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.922371795082825</v>
+        <v>2.358228420547277</v>
       </c>
       <c r="C18">
-        <v>0.6282486668344518</v>
+        <v>0.7022366810004996</v>
       </c>
       <c r="D18">
-        <v>0.04300848068192664</v>
+        <v>0.07862300640170616</v>
       </c>
       <c r="E18">
-        <v>0.3260491613893137</v>
+        <v>0.3482955209787093</v>
       </c>
       <c r="F18">
-        <v>0.7763091952087109</v>
+        <v>0.4879792702985242</v>
       </c>
       <c r="G18">
-        <v>0.0007640398953562277</v>
+        <v>0.3534044596662227</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0183823475051792</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.23888834539882</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1590456833243969</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.270654271455655</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4802534905051132</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.134249626473036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.185207812596907</v>
+      </c>
+      <c r="P18">
+        <v>0.7089174951319848</v>
+      </c>
+      <c r="Q18">
+        <v>1.201075771663341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.896922008987019</v>
+        <v>2.33707033963401</v>
       </c>
       <c r="C19">
-        <v>0.6232432228791822</v>
+        <v>0.6980352796841487</v>
       </c>
       <c r="D19">
-        <v>0.04269888653041676</v>
+        <v>0.07805137162561948</v>
       </c>
       <c r="E19">
-        <v>0.3230374801950902</v>
+        <v>0.3451180110073935</v>
       </c>
       <c r="F19">
-        <v>0.7703333201841502</v>
+        <v>0.4841316134256601</v>
       </c>
       <c r="G19">
-        <v>0.0007644101094707261</v>
+        <v>0.3504058581162184</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01820870075576231</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2378386966576329</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1586695473393185</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.259156187561601</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4823535233891647</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.118934051438202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.174746740638859</v>
+      </c>
+      <c r="P19">
+        <v>0.709422158776519</v>
+      </c>
+      <c r="Q19">
+        <v>1.192496735033728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.011545922085361</v>
+        <v>2.426027144196098</v>
       </c>
       <c r="C20">
-        <v>0.6457797867863349</v>
+        <v>0.7215769436953963</v>
       </c>
       <c r="D20">
-        <v>0.04409200068551655</v>
+        <v>0.08094707955956437</v>
       </c>
       <c r="E20">
-        <v>0.3366519705049313</v>
+        <v>0.3594154200810138</v>
       </c>
       <c r="F20">
-        <v>0.7973605335667884</v>
+        <v>0.4993157810720419</v>
       </c>
       <c r="G20">
-        <v>0.0007627488527343454</v>
+        <v>0.3617681374707047</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01948119234279755</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2414837138016281</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1588967789684652</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.310992329810773</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4729930469544712</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.188288253363908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.221963809507969</v>
+      </c>
+      <c r="P20">
+        <v>0.7098410193394784</v>
+      </c>
+      <c r="Q20">
+        <v>1.224324912879467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.398558441508044</v>
+        <v>2.726899314782713</v>
       </c>
       <c r="C21">
-        <v>0.7217340251267217</v>
+        <v>0.7993272809335963</v>
       </c>
       <c r="D21">
-        <v>0.04877191431967276</v>
+        <v>0.09057726497468366</v>
       </c>
       <c r="E21">
-        <v>0.3835587546812604</v>
+        <v>0.4085870845925186</v>
       </c>
       <c r="F21">
-        <v>0.8906835123549968</v>
+        <v>0.5521378772447818</v>
       </c>
       <c r="G21">
-        <v>0.0007572473963002477</v>
+        <v>0.4016136155719892</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02385009149126205</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2546507654653141</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1606877676738954</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.48694407790407</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4431745120511508</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.429348483997842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.381580051226734</v>
+      </c>
+      <c r="P21">
+        <v>0.71142553946612</v>
+      </c>
+      <c r="Q21">
+        <v>1.33672076544201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65315034963993</v>
+        <v>2.927008508625306</v>
       </c>
       <c r="C22">
-        <v>0.7715916049456553</v>
+        <v>0.8477459322378138</v>
       </c>
       <c r="D22">
-        <v>0.05183108407767634</v>
+        <v>0.09670000241874988</v>
       </c>
       <c r="E22">
-        <v>0.4151929396434184</v>
+        <v>0.4416818280176997</v>
       </c>
       <c r="F22">
-        <v>0.9537418717263648</v>
+        <v>0.588745305715257</v>
       </c>
       <c r="G22">
-        <v>0.0007537078603899724</v>
+        <v>0.4296320268053933</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02668539105024692</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2643078956802754</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1631034372557494</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.603468477165151</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4249759462150209</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.593488462702794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.486710997992844</v>
+      </c>
+      <c r="P22">
+        <v>0.7117889840692442</v>
+      </c>
+      <c r="Q22">
+        <v>1.416564526202052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.517101694085</v>
+        <v>2.823694707377172</v>
       </c>
       <c r="C23">
-        <v>0.7449589604190976</v>
+        <v>0.8193099320101851</v>
       </c>
       <c r="D23">
-        <v>0.05019821767096744</v>
+        <v>0.09325147750029572</v>
       </c>
       <c r="E23">
-        <v>0.3982122635794809</v>
+        <v>0.4239619044622813</v>
       </c>
       <c r="F23">
-        <v>0.9198845227225689</v>
+        <v>0.5703401237497658</v>
       </c>
       <c r="G23">
-        <v>0.0007555921049756109</v>
+        <v>0.4158176957649999</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0249259460418596</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2597265669238595</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.162602412183702</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.541124051562448</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4345659412227008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.505240310483742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.430468705173979</v>
+      </c>
+      <c r="P23">
+        <v>0.7100281559724806</v>
+      </c>
+      <c r="Q23">
+        <v>1.37756657188794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.005244808128339</v>
+        <v>2.42641041018021</v>
       </c>
       <c r="C24">
-        <v>0.6445414069664821</v>
+        <v>0.7163911140559946</v>
       </c>
       <c r="D24">
-        <v>0.04401550312039149</v>
+        <v>0.08051618889989243</v>
       </c>
       <c r="E24">
-        <v>0.3359002164219618</v>
+        <v>0.3586778549907237</v>
       </c>
       <c r="F24">
-        <v>0.7958673336752753</v>
+        <v>0.5003222208256801</v>
       </c>
       <c r="G24">
-        <v>0.0007628397703734318</v>
+        <v>0.3629800081141497</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01904010963756075</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2422152669800113</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1601420986074871</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.308139481085604</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4735011223571419</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.184450872822993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.219293430315801</v>
+      </c>
+      <c r="P24">
+        <v>0.7075947661652791</v>
+      </c>
+      <c r="Q24">
+        <v>1.228420174387651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.458685667129316</v>
+        <v>1.997006686455052</v>
       </c>
       <c r="C25">
-        <v>0.5368913108602271</v>
+        <v>0.6062784955543634</v>
       </c>
       <c r="D25">
-        <v>0.0373417721910414</v>
+        <v>0.06682642394775939</v>
       </c>
       <c r="E25">
-        <v>0.2721936288698359</v>
+        <v>0.2916298415863992</v>
       </c>
       <c r="F25">
-        <v>0.669759769377066</v>
+        <v>0.4279370381254637</v>
       </c>
       <c r="G25">
-        <v>0.0007709215272847238</v>
+        <v>0.3087107853749416</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01349602390163795</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2249500441496224</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1590207972432616</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.062165125371308</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5205718456194361</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.862953174140642</v>
+        <v>0.9945010084607588</v>
+      </c>
+      <c r="P25">
+        <v>0.7084653476196081</v>
+      </c>
+      <c r="Q25">
+        <v>1.076687228355354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.68796907040516</v>
+        <v>1.6462840522166</v>
       </c>
       <c r="C2">
-        <v>0.5196570342459381</v>
+        <v>0.541734575142641</v>
       </c>
       <c r="D2">
-        <v>0.05634440437388832</v>
+        <v>0.05871020525302839</v>
       </c>
       <c r="E2">
-        <v>0.244636179969298</v>
+        <v>0.2439389977430579</v>
       </c>
       <c r="F2">
-        <v>0.3798117051058938</v>
+        <v>0.3687417126885038</v>
       </c>
       <c r="G2">
-        <v>0.273599347431329</v>
+        <v>0.2483504403146597</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009470398764893417</v>
+        <v>0.008813971717119173</v>
       </c>
       <c r="J2">
-        <v>0.2149411621481647</v>
+        <v>0.2556977521536297</v>
       </c>
       <c r="K2">
-        <v>0.1613782062103759</v>
+        <v>0.1544208103295226</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1112854462473756</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0245523849616891</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8306947144395238</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7085237366927828</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9808769077912274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8299742172243825</v>
+      </c>
+      <c r="R2">
+        <v>0.728921246659624</v>
+      </c>
+      <c r="S2">
+        <v>0.948990075814649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.472887013975708</v>
+        <v>1.44186973348684</v>
       </c>
       <c r="C3">
-        <v>0.4646802924008853</v>
+        <v>0.4790398784724346</v>
       </c>
       <c r="D3">
-        <v>0.0494932535016801</v>
+        <v>0.05129700919638935</v>
       </c>
       <c r="E3">
-        <v>0.2138955672350846</v>
+        <v>0.2133106846769266</v>
       </c>
       <c r="F3">
-        <v>0.346708902131077</v>
+        <v>0.3386443296552528</v>
       </c>
       <c r="G3">
-        <v>0.2491380419703049</v>
+        <v>0.2260189500979521</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007294052551253483</v>
+        <v>0.006939708174070969</v>
       </c>
       <c r="J3">
-        <v>0.2079771030352831</v>
+        <v>0.2489674948807163</v>
       </c>
       <c r="K3">
-        <v>0.1624603550911843</v>
+        <v>0.156778405047584</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1161374797323838</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02237520501457357</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7205646719687877</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7121120099727705</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9141372095152462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7200988678613101</v>
+      </c>
+      <c r="R3">
+        <v>0.7267979973866971</v>
+      </c>
+      <c r="S3">
+        <v>0.8911687500752237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.3402203464114</v>
+        <v>1.315537091773905</v>
       </c>
       <c r="C4">
-        <v>0.431092232322527</v>
+        <v>0.4408663774339914</v>
       </c>
       <c r="D4">
-        <v>0.04529420016930885</v>
+        <v>0.04676247099273212</v>
       </c>
       <c r="E4">
-        <v>0.1955048996177524</v>
+        <v>0.1949875216804031</v>
       </c>
       <c r="F4">
-        <v>0.3268612354052038</v>
+        <v>0.3205321841937376</v>
       </c>
       <c r="G4">
-        <v>0.234512465380341</v>
+        <v>0.2126776231219054</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006086797980594305</v>
+        <v>0.005897720121190275</v>
       </c>
       <c r="J4">
-        <v>0.2039832883669277</v>
+        <v>0.2449459342311471</v>
       </c>
       <c r="K4">
-        <v>0.1633861841383553</v>
+        <v>0.1584131961965394</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1192670586400375</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02153382388225644</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6532462312502432</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.715109594545126</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8745757859445291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6529068262260225</v>
+      </c>
+      <c r="R4">
+        <v>0.7263502217644202</v>
+      </c>
+      <c r="S4">
+        <v>0.8567285752599645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.285159872695743</v>
+        <v>1.26300873026392</v>
       </c>
       <c r="C5">
-        <v>0.418057854069076</v>
+        <v>0.4260245684716892</v>
       </c>
       <c r="D5">
-        <v>0.04362793359363337</v>
+        <v>0.04496268392805547</v>
       </c>
       <c r="E5">
-        <v>0.1881121460501376</v>
+        <v>0.1876220910652293</v>
       </c>
       <c r="F5">
-        <v>0.3185831400332262</v>
+        <v>0.3129369660564834</v>
       </c>
       <c r="G5">
-        <v>0.2283425440008386</v>
+        <v>0.2070312891534627</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005675495622815774</v>
+        <v>0.005562232147481083</v>
       </c>
       <c r="J5">
-        <v>0.2022686051602989</v>
+        <v>0.2431738465674584</v>
       </c>
       <c r="K5">
-        <v>0.1636138044849709</v>
+        <v>0.1589198898797299</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1204646289954674</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02127268121149672</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6258899010310373</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7168463425041267</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8578243567607728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6255958252539386</v>
+      </c>
+      <c r="R5">
+        <v>0.7267143997975651</v>
+      </c>
+      <c r="S5">
+        <v>0.8419890714533835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.274976936404727</v>
+        <v>1.253247290831297</v>
       </c>
       <c r="C6">
-        <v>0.4166520364884718</v>
+        <v>0.4243494097361804</v>
       </c>
       <c r="D6">
-        <v>0.04340450647586636</v>
+        <v>0.04471821561634215</v>
       </c>
       <c r="E6">
-        <v>0.1868804699054607</v>
+        <v>0.1863949557157838</v>
       </c>
       <c r="F6">
-        <v>0.3168458283819433</v>
+        <v>0.3113140975618052</v>
       </c>
       <c r="G6">
-        <v>0.2269547526953133</v>
+        <v>0.2057382427853227</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005678408076782659</v>
+        <v>0.005594992359999829</v>
       </c>
       <c r="J6">
-        <v>0.2017984908447872</v>
+        <v>0.2426858325359404</v>
       </c>
       <c r="K6">
-        <v>0.163395807372849</v>
+        <v>0.1587573281724897</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1205253427154691</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02118566447160841</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6213682403395993</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7175415243092687</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8538840835606294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.621081734632817</v>
+      </c>
+      <c r="R6">
+        <v>0.7272019365108946</v>
+      </c>
+      <c r="S6">
+        <v>0.8383909516923325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.336653238466965</v>
+        <v>1.311134220575298</v>
       </c>
       <c r="C7">
-        <v>0.4329884416486038</v>
+        <v>0.4422206273211771</v>
       </c>
       <c r="D7">
-        <v>0.04541736705368749</v>
+        <v>0.04698984125526806</v>
       </c>
       <c r="E7">
-        <v>0.1953763005935016</v>
+        <v>0.194957309035388</v>
       </c>
       <c r="F7">
-        <v>0.3257391601406994</v>
+        <v>0.3187505547860852</v>
       </c>
       <c r="G7">
-        <v>0.2334205734287877</v>
+        <v>0.2143299122667486</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.006256659978895129</v>
+        <v>0.006108143914179465</v>
       </c>
       <c r="J7">
-        <v>0.2034424733264046</v>
+        <v>0.2404496578127109</v>
       </c>
       <c r="K7">
-        <v>0.1626802306969211</v>
+        <v>0.1575168010827728</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1187890750325575</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02132923274144183</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6529243061296484</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7162241287511364</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8711268975997655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6523196653926888</v>
+      </c>
+      <c r="R7">
+        <v>0.7279316310316943</v>
+      </c>
+      <c r="S7">
+        <v>0.8512089332677135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.610153117250206</v>
+        <v>1.569258564069429</v>
       </c>
       <c r="C8">
-        <v>0.5034347422762266</v>
+        <v>0.5209257421215625</v>
       </c>
       <c r="D8">
-        <v>0.05417492282882819</v>
+        <v>0.05669721651909754</v>
       </c>
       <c r="E8">
-        <v>0.233891570152494</v>
+        <v>0.2335617872787097</v>
       </c>
       <c r="F8">
-        <v>0.3669517359822265</v>
+        <v>0.3547020009280502</v>
       </c>
       <c r="G8">
-        <v>0.2637389307051095</v>
+        <v>0.2483726078005333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008899622320461376</v>
+        <v>0.008387531262112446</v>
       </c>
       <c r="J8">
-        <v>0.2117944547710522</v>
+        <v>0.2397796272126271</v>
       </c>
       <c r="K8">
-        <v>0.1607598292815027</v>
+        <v>0.1535747118760504</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1121347551085243</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02324408409706358</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7927110872949044</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7110921450215031</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9532818037403104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7911873695008111</v>
+      </c>
+      <c r="R8">
+        <v>0.7310890380965702</v>
+      </c>
+      <c r="S8">
+        <v>0.9175139438304711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.147006591748664</v>
+        <v>2.077314263247274</v>
       </c>
       <c r="C9">
-        <v>0.6394439505964726</v>
+        <v>0.676367447585335</v>
       </c>
       <c r="D9">
-        <v>0.07116508761586715</v>
+        <v>0.07524541754537495</v>
       </c>
       <c r="E9">
-        <v>0.3138714241786147</v>
+        <v>0.3133386166470302</v>
       </c>
       <c r="F9">
-        <v>0.4537712875917492</v>
+        <v>0.4327071546618697</v>
       </c>
       <c r="G9">
-        <v>0.3284910441953031</v>
+        <v>0.3102557673331603</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01496758550626343</v>
+        <v>0.01350458409667166</v>
       </c>
       <c r="J9">
-        <v>0.2314942424167725</v>
+        <v>0.2542762310433062</v>
       </c>
       <c r="K9">
-        <v>0.1604683044194815</v>
+        <v>0.1494394074524763</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1013034025968622</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0315227546742598</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.069814175182138</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7055802177743757</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.132507475502138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.067164690795202</v>
+      </c>
+      <c r="R9">
+        <v>0.740614090873791</v>
+      </c>
+      <c r="S9">
+        <v>1.070305652724755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.537518112743498</v>
+        <v>2.440094214407111</v>
       </c>
       <c r="C10">
-        <v>0.7418687336868572</v>
+        <v>0.7902339576779127</v>
       </c>
       <c r="D10">
-        <v>0.08380231626875201</v>
+        <v>0.08971586512162588</v>
       </c>
       <c r="E10">
-        <v>0.3761333221738354</v>
+        <v>0.3760119049139377</v>
       </c>
       <c r="F10">
-        <v>0.5201853816273498</v>
+        <v>0.4879892611908119</v>
       </c>
       <c r="G10">
-        <v>0.3782122309122116</v>
+        <v>0.3744059647164022</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0203896185871475</v>
+        <v>0.01805852219582693</v>
       </c>
       <c r="J10">
-        <v>0.2474023336544349</v>
+        <v>0.2438350705008219</v>
       </c>
       <c r="K10">
-        <v>0.1614533219082404</v>
+        <v>0.1459575505557744</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09354865542326785</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03947621917078692</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.276294724271253</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7066084619097097</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.271701962885544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.270918384054724</v>
+      </c>
+      <c r="R10">
+        <v>0.7559062787127715</v>
+      </c>
+      <c r="S10">
+        <v>1.175464383638598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.709913761487712</v>
+        <v>2.590143720791673</v>
       </c>
       <c r="C11">
-        <v>0.7924255503738493</v>
+        <v>0.8398019466209519</v>
       </c>
       <c r="D11">
-        <v>0.08982342278331146</v>
+        <v>0.09774118997073344</v>
       </c>
       <c r="E11">
-        <v>0.4053735317243436</v>
+        <v>0.4064815910584585</v>
       </c>
       <c r="F11">
-        <v>0.5495410153873692</v>
+        <v>0.5050737636360765</v>
       </c>
       <c r="G11">
-        <v>0.3998611404793735</v>
+        <v>0.433357588025828</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02337896473304557</v>
+        <v>0.02061404321990246</v>
       </c>
       <c r="J11">
-        <v>0.2542148725520974</v>
+        <v>0.2051088342868255</v>
       </c>
       <c r="K11">
-        <v>0.1611431628634854</v>
+        <v>0.1414575856167417</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0891716417547439</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04222174557174441</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.371155930771849</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7102060252762072</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.33207036118344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.361525099817712</v>
+      </c>
+      <c r="R11">
+        <v>0.7715459341007715</v>
+      </c>
+      <c r="S11">
+        <v>1.197922176160176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.77768401087053</v>
+        <v>2.648122507882306</v>
       </c>
       <c r="C12">
-        <v>0.8097646581879303</v>
+        <v>0.8558485755186496</v>
       </c>
       <c r="D12">
-        <v>0.09197661465341866</v>
+        <v>0.1008052757266569</v>
       </c>
       <c r="E12">
-        <v>0.4166274755111914</v>
+        <v>0.4183382614578193</v>
       </c>
       <c r="F12">
-        <v>0.5616766770161234</v>
+        <v>0.5115968732734757</v>
       </c>
       <c r="G12">
-        <v>0.4090585225334564</v>
+        <v>0.4612680883040809</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02439634118280498</v>
+        <v>0.02140448345624701</v>
       </c>
       <c r="J12">
-        <v>0.2573101751040952</v>
+        <v>0.1885340354492016</v>
       </c>
       <c r="K12">
-        <v>0.1616927790152403</v>
+        <v>0.1400725632670898</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08766791925754269</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04342776925738079</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.407188925717989</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7106576172201926</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.358127665887878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.395546508861102</v>
+      </c>
+      <c r="R12">
+        <v>0.7772025257873452</v>
+      </c>
+      <c r="S12">
+        <v>1.206602913756512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.763604473133967</v>
+        <v>2.636200466077923</v>
       </c>
       <c r="C13">
-        <v>0.8056481598034679</v>
+        <v>0.8520295213158704</v>
       </c>
       <c r="D13">
-        <v>0.09148623483288532</v>
+        <v>0.1001101003986946</v>
       </c>
       <c r="E13">
-        <v>0.4142015103837977</v>
+        <v>0.4157761657013026</v>
       </c>
       <c r="F13">
-        <v>0.5592362003120073</v>
+        <v>0.5104001678338719</v>
       </c>
       <c r="G13">
-        <v>0.4072511963661185</v>
+        <v>0.4552208901550614</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0241421386297187</v>
+        <v>0.02119008833943781</v>
       </c>
       <c r="J13">
-        <v>0.2567310554649538</v>
+        <v>0.1922337281771433</v>
       </c>
       <c r="K13">
-        <v>0.1616936517677168</v>
+        <v>0.1404880635652184</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08802850664438289</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04321793114605299</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.399414927470161</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7103339770899169</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.353066858613488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.38822371708541</v>
+      </c>
+      <c r="R13">
+        <v>0.775699377546502</v>
+      </c>
+      <c r="S13">
+        <v>1.205382826946192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.715708341189099</v>
+        <v>2.595155036263634</v>
       </c>
       <c r="C14">
-        <v>0.793689691065623</v>
+        <v>0.840968493881519</v>
       </c>
       <c r="D14">
-        <v>0.08998924692111387</v>
+        <v>0.09797816718732832</v>
       </c>
       <c r="E14">
-        <v>0.4062982921794855</v>
+        <v>0.4074531083337689</v>
       </c>
       <c r="F14">
-        <v>0.5506128146528653</v>
+        <v>0.5056999344241788</v>
       </c>
       <c r="G14">
-        <v>0.4006913667295606</v>
+        <v>0.4356331515213014</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02344741961514263</v>
+        <v>0.02065995219195482</v>
       </c>
       <c r="J14">
-        <v>0.2545066244799443</v>
+        <v>0.2038073990703779</v>
       </c>
       <c r="K14">
-        <v>0.1612389655408109</v>
+        <v>0.1413939693707569</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08906391510871359</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04234210694907148</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.374114422424327</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7101470326236097</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.33444775027499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.364326157303523</v>
+      </c>
+      <c r="R14">
+        <v>0.7718899904067911</v>
+      </c>
+      <c r="S14">
+        <v>1.198915929387766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.685353961191822</v>
+        <v>2.568844254884482</v>
       </c>
       <c r="C15">
-        <v>0.787119837578615</v>
+        <v>0.8348782021666352</v>
       </c>
       <c r="D15">
-        <v>0.08912491022869062</v>
+        <v>0.09674823904384056</v>
       </c>
       <c r="E15">
-        <v>0.4014683874861547</v>
+        <v>0.4023843259185114</v>
       </c>
       <c r="F15">
-        <v>0.5449956301233101</v>
+        <v>0.502374854514521</v>
       </c>
       <c r="G15">
-        <v>0.3963367866714975</v>
+        <v>0.4239137217796412</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02309675506211573</v>
+        <v>0.0204279114459176</v>
       </c>
       <c r="J15">
-        <v>0.2529746462396361</v>
+        <v>0.2105210592750382</v>
       </c>
       <c r="K15">
-        <v>0.160728351748066</v>
+        <v>0.1417059664374065</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08962130035416926</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04170584218477558</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.358650397415417</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7104835993430783</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.321974660044845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.349669098637889</v>
+      </c>
+      <c r="R15">
+        <v>0.7701506267307963</v>
+      </c>
+      <c r="S15">
+        <v>1.193560432626157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.517754294033352</v>
+        <v>2.421750576839031</v>
       </c>
       <c r="C16">
-        <v>0.7448337734583674</v>
+        <v>0.7934924351280301</v>
       </c>
       <c r="D16">
-        <v>0.08384674843663475</v>
+        <v>0.08966650775708018</v>
       </c>
       <c r="E16">
-        <v>0.3741602565422113</v>
+        <v>0.3739770440694272</v>
       </c>
       <c r="F16">
-        <v>0.5153158866774419</v>
+        <v>0.4838832827948778</v>
       </c>
       <c r="G16">
-        <v>0.3738511597038183</v>
+        <v>0.368181764289929</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02073364506424635</v>
+        <v>0.01858453401147919</v>
       </c>
       <c r="J16">
-        <v>0.2454639114161381</v>
+        <v>0.2446076104468631</v>
       </c>
       <c r="K16">
-        <v>0.1594534266749221</v>
+        <v>0.144391324211508</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09318064548058302</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03853357172452121</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.270231407203767</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7099791546177556</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.258383657580225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.265084569748836</v>
+      </c>
+      <c r="R16">
+        <v>0.7589094441539714</v>
+      </c>
+      <c r="S16">
+        <v>1.164614652048414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.414871206593375</v>
+        <v>2.329272097144724</v>
       </c>
       <c r="C17">
-        <v>0.7189763644172444</v>
+        <v>0.7667953867775736</v>
       </c>
       <c r="D17">
-        <v>0.08061345172568934</v>
+        <v>0.08558533468173835</v>
       </c>
       <c r="E17">
-        <v>0.3576671430288982</v>
+        <v>0.3570389541620571</v>
       </c>
       <c r="F17">
-        <v>0.4973403622817045</v>
+        <v>0.4711741510169816</v>
       </c>
       <c r="G17">
-        <v>0.3602583400312938</v>
+        <v>0.3413068937434502</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01935265802579522</v>
+        <v>0.01749302597400337</v>
       </c>
       <c r="J17">
-        <v>0.2409745422805827</v>
+        <v>0.2594703415935413</v>
       </c>
       <c r="K17">
-        <v>0.1587813206093536</v>
+        <v>0.1456488883845175</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09527715772613732</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0365084559404778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.21622616005213</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.709930582793902</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.220044949457105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.212761509400892</v>
+      </c>
+      <c r="R17">
+        <v>0.7534810308577704</v>
+      </c>
+      <c r="S17">
+        <v>1.142559943197426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.358228420547277</v>
+        <v>2.277819438035181</v>
       </c>
       <c r="C18">
-        <v>0.7022366810004996</v>
+        <v>0.7489762162840634</v>
       </c>
       <c r="D18">
-        <v>0.07862300640170616</v>
+        <v>0.08319217407921542</v>
       </c>
       <c r="E18">
-        <v>0.3482955209787093</v>
+        <v>0.347491054733716</v>
       </c>
       <c r="F18">
-        <v>0.4879792702985242</v>
+        <v>0.4642601524047905</v>
       </c>
       <c r="G18">
-        <v>0.3534044596662227</v>
+        <v>0.329132645847622</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0183823475051792</v>
+        <v>0.01662446417157604</v>
       </c>
       <c r="J18">
-        <v>0.23888834539882</v>
+        <v>0.2658417077525854</v>
       </c>
       <c r="K18">
-        <v>0.1590456833243969</v>
+        <v>0.14679315898859</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09665561200345074</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03554274730810825</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.185207812596907</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7089174951319848</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.201075771663341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.182475953478203</v>
+      </c>
+      <c r="R18">
+        <v>0.749699714609136</v>
+      </c>
+      <c r="S18">
+        <v>1.131112795333991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.33707033963401</v>
+        <v>2.258318882500021</v>
       </c>
       <c r="C19">
-        <v>0.6980352796841487</v>
+        <v>0.7444100901900299</v>
       </c>
       <c r="D19">
-        <v>0.07805137162561948</v>
+        <v>0.08250210457924112</v>
       </c>
       <c r="E19">
-        <v>0.3451180110073935</v>
+        <v>0.3442671574044169</v>
       </c>
       <c r="F19">
-        <v>0.4841316134256601</v>
+        <v>0.461163680594936</v>
       </c>
       <c r="G19">
-        <v>0.3504058581162184</v>
+        <v>0.3247279252020263</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01820870075576231</v>
+        <v>0.01652492292100494</v>
       </c>
       <c r="J19">
-        <v>0.2378386966576329</v>
+        <v>0.2671882173256108</v>
       </c>
       <c r="K19">
-        <v>0.1586695473393185</v>
+        <v>0.1467258171067805</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09695522166359005</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03504229868367226</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.174746740638859</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.709422158776519</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.192496735033728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.172225431503598</v>
+      </c>
+      <c r="R19">
+        <v>0.7494012613192211</v>
+      </c>
+      <c r="S19">
+        <v>1.124859016597526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.426027144196098</v>
+        <v>2.339397139376103</v>
       </c>
       <c r="C20">
-        <v>0.7215769436953963</v>
+        <v>0.769528227371751</v>
       </c>
       <c r="D20">
-        <v>0.08094707955956437</v>
+        <v>0.08599953020726758</v>
       </c>
       <c r="E20">
-        <v>0.3594154200810138</v>
+        <v>0.3588262423841826</v>
       </c>
       <c r="F20">
-        <v>0.4993157810720419</v>
+        <v>0.4726458399766074</v>
       </c>
       <c r="G20">
-        <v>0.3617681374707047</v>
+        <v>0.3439816997120602</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01948119234279755</v>
+        <v>0.01758746897527708</v>
       </c>
       <c r="J20">
-        <v>0.2414837138016281</v>
+        <v>0.2581862003810897</v>
       </c>
       <c r="K20">
-        <v>0.1588967789684652</v>
+        <v>0.1455731370117732</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09507361045526785</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03674395493503724</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.221963809507969</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7098410193394784</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.224324912879467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.218344406550671</v>
+      </c>
+      <c r="R20">
+        <v>0.7539138250597972</v>
+      </c>
+      <c r="S20">
+        <v>1.145281753619201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.726899314782713</v>
+        <v>2.601084443943535</v>
       </c>
       <c r="C21">
-        <v>0.7993272809335963</v>
+        <v>0.8441695415431525</v>
       </c>
       <c r="D21">
-        <v>0.09057726497468366</v>
+        <v>0.09916189606803982</v>
       </c>
       <c r="E21">
-        <v>0.4085870845925186</v>
+        <v>0.4102337278111534</v>
       </c>
       <c r="F21">
-        <v>0.5521378772447818</v>
+        <v>0.5036468753300056</v>
       </c>
       <c r="G21">
-        <v>0.4016136155719892</v>
+        <v>0.4513457202565831</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02385009149126205</v>
+        <v>0.02104369622007507</v>
       </c>
       <c r="J21">
-        <v>0.2546507654653141</v>
+        <v>0.1894214406123211</v>
       </c>
       <c r="K21">
-        <v>0.1606877676738954</v>
+        <v>0.1397667009962191</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08830599522754845</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04200340577436634</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.381580051226734</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.71142553946612</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.33672076544201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.370360650860803</v>
+      </c>
+      <c r="R21">
+        <v>0.7762083464362632</v>
+      </c>
+      <c r="S21">
+        <v>1.190108663054531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.927008508625306</v>
+        <v>2.773471653749027</v>
       </c>
       <c r="C22">
-        <v>0.8477459322378138</v>
+        <v>0.8894554733335269</v>
       </c>
       <c r="D22">
-        <v>0.09670000241874988</v>
+        <v>0.1078344624674941</v>
       </c>
       <c r="E22">
-        <v>0.4416818280176997</v>
+        <v>0.4449799877080736</v>
       </c>
       <c r="F22">
-        <v>0.588745305715257</v>
+        <v>0.5245600706253626</v>
       </c>
       <c r="G22">
-        <v>0.4296320268053933</v>
+        <v>0.5324894692618471</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02668539105024692</v>
+        <v>0.02315646306485863</v>
       </c>
       <c r="J22">
-        <v>0.2643078956802754</v>
+        <v>0.1506585575679367</v>
       </c>
       <c r="K22">
-        <v>0.1631034372557494</v>
+        <v>0.1366866101054818</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0843310364206058</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04598578066235248</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.486710997992844</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7117889840692442</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.416564526202052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.469889750591449</v>
+      </c>
+      <c r="R22">
+        <v>0.791210402741072</v>
+      </c>
+      <c r="S22">
+        <v>1.221402240728651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.823694707377172</v>
+        <v>2.687392550002642</v>
       </c>
       <c r="C23">
-        <v>0.8193099320101851</v>
+        <v>0.8642513067167101</v>
       </c>
       <c r="D23">
-        <v>0.09325147750029572</v>
+        <v>0.1027078526923333</v>
       </c>
       <c r="E23">
-        <v>0.4239619044622813</v>
+        <v>0.4261015705640574</v>
       </c>
       <c r="F23">
-        <v>0.5703401237497658</v>
+        <v>0.5163313390802884</v>
       </c>
       <c r="G23">
-        <v>0.4158176957649999</v>
+        <v>0.4815812425266444</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0249259460418596</v>
+        <v>0.02174086694603883</v>
       </c>
       <c r="J23">
-        <v>0.2597265669238595</v>
+        <v>0.1777430765792616</v>
       </c>
       <c r="K23">
-        <v>0.162602412183702</v>
+        <v>0.1395819163064544</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08683912575119557</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04439536711642589</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.430468705173979</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7100281559724806</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.37756657188794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.417411227613854</v>
+      </c>
+      <c r="R23">
+        <v>0.7800414860650591</v>
+      </c>
+      <c r="S23">
+        <v>1.213837528449858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.42641041018021</v>
+        <v>2.340171581746745</v>
       </c>
       <c r="C24">
-        <v>0.7163911140559946</v>
+        <v>0.7640596366805994</v>
       </c>
       <c r="D24">
-        <v>0.08051618889989243</v>
+        <v>0.08552273066636928</v>
       </c>
       <c r="E24">
-        <v>0.3586778549907237</v>
+        <v>0.3580706905928253</v>
       </c>
       <c r="F24">
-        <v>0.5003222208256801</v>
+        <v>0.4738333514887429</v>
       </c>
       <c r="G24">
-        <v>0.3629800081141497</v>
+        <v>0.3446300993040552</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01904010963756075</v>
+        <v>0.01705437680677147</v>
       </c>
       <c r="J24">
-        <v>0.2422152669800113</v>
+        <v>0.2596817326090815</v>
       </c>
       <c r="K24">
-        <v>0.1601420986074871</v>
+        <v>0.1467890250488288</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09559810912278088</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0371115838094358</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.219293430315801</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7075947661652791</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.228420174387651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.215741403505049</v>
+      </c>
+      <c r="R24">
+        <v>0.7512410078206671</v>
+      </c>
+      <c r="S24">
+        <v>1.14987553135191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.997006686455052</v>
+        <v>1.936657463584737</v>
       </c>
       <c r="C25">
-        <v>0.6062784955543634</v>
+        <v>0.6388908955446198</v>
       </c>
       <c r="D25">
-        <v>0.06682642394775939</v>
+        <v>0.07033278833422685</v>
       </c>
       <c r="E25">
-        <v>0.2916298415863992</v>
+        <v>0.2910137058445699</v>
       </c>
       <c r="F25">
-        <v>0.4279370381254637</v>
+        <v>0.4103750368320718</v>
       </c>
       <c r="G25">
-        <v>0.3087107853749416</v>
+        <v>0.2873492031243927</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01349602390163795</v>
+        <v>0.01241205544524338</v>
       </c>
       <c r="J25">
-        <v>0.2249500441496224</v>
+        <v>0.2547777321238129</v>
       </c>
       <c r="K25">
-        <v>0.1590207972432616</v>
+        <v>0.1495087587847905</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.103742179987627</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02854561493104235</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9945010084607588</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7084653476196081</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.076687228355354</v>
+        <v>0.992590261587381</v>
+      </c>
+      <c r="R25">
+        <v>0.7388723969646733</v>
+      </c>
+      <c r="S25">
+        <v>1.025204360842309</v>
       </c>
     </row>
   </sheetData>
